--- a/DynamicIIS/sites.xlsx
+++ b/DynamicIIS/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\git-linx\Packer\DynamicIIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C8D84B-CC1F-4BF0-AD1F-67B3950A3367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891042B-4B11-4715-BE84-7EAB22220223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6F11C99-D69F-4E9B-A732-706F67892B04}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>integracaoSac</t>
   </si>
   <si>
-    <t>erp-upload</t>
-  </si>
-  <si>
     <t>erp_upload</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>catalogodigital</t>
   </si>
   <si>
-    <t>linx</t>
-  </si>
-  <si>
     <t>hubfidelidade-api</t>
   </si>
   <si>
@@ -426,6 +420,12 @@
   </si>
   <si>
     <t>erpcore-api</t>
+  </si>
+  <si>
+    <t>erpupload</t>
+  </si>
+  <si>
+    <t>erp-linx</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE2AB6E-F253-4C9C-B579-AA32B67CAED5}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:L49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,10 +838,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1088,12 +1088,12 @@
         <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>

--- a/DynamicIIS/sites.xlsx
+++ b/DynamicIIS/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\git-linx\Packer\DynamicIIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891042B-4B11-4715-BE84-7EAB22220223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D67BC4-C312-49E6-991B-A57B51195930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6F11C99-D69F-4E9B-A732-706F67892B04}"/>
   </bookViews>
@@ -320,9 +320,6 @@
     <t>relatorios-api</t>
   </si>
   <si>
-    <t>terceiros-api</t>
-  </si>
-  <si>
     <t>hubvaletrocas</t>
   </si>
   <si>
@@ -335,24 +332,12 @@
     <t>giftcard-api</t>
   </si>
   <si>
-    <t>pos-trocas</t>
-  </si>
-  <si>
-    <t>pos-sincronizacao</t>
-  </si>
-  <si>
     <t>pos-sao</t>
   </si>
   <si>
     <t>edi</t>
   </si>
   <si>
-    <t>lis-api</t>
-  </si>
-  <si>
-    <t>lis-winservice</t>
-  </si>
-  <si>
     <t>conciliador</t>
   </si>
   <si>
@@ -377,9 +362,6 @@
     <t>email-api</t>
   </si>
   <si>
-    <t>es-api</t>
-  </si>
-  <si>
     <t>faturamentocrediario-api</t>
   </si>
   <si>
@@ -426,6 +408,24 @@
   </si>
   <si>
     <t>erp-linx</t>
+  </si>
+  <si>
+    <t>eswebapi</t>
+  </si>
+  <si>
+    <t>liswebapi</t>
+  </si>
+  <si>
+    <t>liswinservice</t>
+  </si>
+  <si>
+    <t>terceiroswebapi</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>posdownload</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE2AB6E-F253-4C9C-B579-AA32B67CAED5}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,7 +838,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>

--- a/DynamicIIS/sites.xlsx
+++ b/DynamicIIS/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\git-linx\Packer\DynamicIIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D67BC4-C312-49E6-991B-A57B51195930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B8D0C-D6AC-480C-9773-DF81C29B391B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6F11C99-D69F-4E9B-A732-706F67892B04}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$K$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="130">
   <si>
     <t>is32Bits</t>
   </si>
@@ -191,18 +191,9 @@
     <t>TeamProject</t>
   </si>
   <si>
-    <t>$true</t>
-  </si>
-  <si>
     <t>ERP MICROVIX</t>
   </si>
   <si>
-    <t>$TRUE</t>
-  </si>
-  <si>
-    <t>$false</t>
-  </si>
-  <si>
     <t>ServicoSAO 6.0</t>
   </si>
   <si>
@@ -305,33 +296,12 @@
     <t>erp</t>
   </si>
   <si>
-    <t>crm-api</t>
-  </si>
-  <si>
-    <t>admfinanceiro-api</t>
-  </si>
-  <si>
-    <t>fiscal-api</t>
-  </si>
-  <si>
-    <t>suprimentos-api</t>
-  </si>
-  <si>
-    <t>relatorios-api</t>
-  </si>
-  <si>
     <t>hubvaletrocas</t>
   </si>
   <si>
     <t>catalogodigital</t>
   </si>
   <si>
-    <t>hubfidelidade-api</t>
-  </si>
-  <si>
-    <t>giftcard-api</t>
-  </si>
-  <si>
     <t>pos-sao</t>
   </si>
   <si>
@@ -344,39 +314,15 @@
     <t>reportviewer</t>
   </si>
   <si>
-    <t>lfa-api</t>
-  </si>
-  <si>
     <t>nfe4</t>
   </si>
   <si>
-    <t>nfe4-api</t>
-  </si>
-  <si>
-    <t>faturamento-api</t>
-  </si>
-  <si>
-    <t>dashboard-api</t>
-  </si>
-  <si>
-    <t>email-api</t>
-  </si>
-  <si>
-    <t>faturamentocrediario-api</t>
-  </si>
-  <si>
-    <t>produtosimagens-api</t>
-  </si>
-  <si>
     <t>biv4</t>
   </si>
   <si>
     <t>vendafacil</t>
   </si>
   <si>
-    <t>lgpdterceiros-api</t>
-  </si>
-  <si>
     <t>estoque</t>
   </si>
   <si>
@@ -389,27 +335,12 @@
     <t>erpweb</t>
   </si>
   <si>
-    <t>servicos-api</t>
-  </si>
-  <si>
-    <t>agendaservicos-api</t>
-  </si>
-  <si>
     <t>agendaservicos</t>
   </si>
   <si>
-    <t>otico-api</t>
-  </si>
-  <si>
-    <t>erpcore-api</t>
-  </si>
-  <si>
     <t>erpupload</t>
   </si>
   <si>
-    <t>erp-linx</t>
-  </si>
-  <si>
     <t>eswebapi</t>
   </si>
   <si>
@@ -426,6 +357,78 @@
   </si>
   <si>
     <t>posdownload</t>
+  </si>
+  <si>
+    <t>giftcardwebapi</t>
+  </si>
+  <si>
+    <t>hubfidelidadewebapi</t>
+  </si>
+  <si>
+    <t>faturamentowebapi</t>
+  </si>
+  <si>
+    <t>dashboardwebapi</t>
+  </si>
+  <si>
+    <t>erplinx</t>
+  </si>
+  <si>
+    <t>nfe4webapi</t>
+  </si>
+  <si>
+    <t>lfawebapi</t>
+  </si>
+  <si>
+    <t>emailwebapi</t>
+  </si>
+  <si>
+    <t>crmwebapi</t>
+  </si>
+  <si>
+    <t>admfinanceirowebapi</t>
+  </si>
+  <si>
+    <t>fiscalwebapi</t>
+  </si>
+  <si>
+    <t>suprimentoswebapi</t>
+  </si>
+  <si>
+    <t>faturamentocrediariowebapi</t>
+  </si>
+  <si>
+    <t>produtosimagenswebapi</t>
+  </si>
+  <si>
+    <t>relatorioswebapi</t>
+  </si>
+  <si>
+    <t>lmx-bi_4.0-api</t>
+  </si>
+  <si>
+    <t>biv4webapi</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>lgpdterceiroswebapi</t>
+  </si>
+  <si>
+    <t>servicoswebapi</t>
+  </si>
+  <si>
+    <t>agendaservicoswebapi</t>
+  </si>
+  <si>
+    <t>oticowebapi</t>
+  </si>
+  <si>
+    <t>erpcorewebapi</t>
   </si>
 </sst>
 </file>
@@ -777,15 +780,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE2AB6E-F253-4C9C-B579-AA32B67CAED5}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection sqref="A1:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -800,10 +803,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -827,1081 +830,1075 @@
         <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
         <v>65</v>
       </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>68</v>
-      </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
-      </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
         <v>69</v>
-      </c>
-      <c r="H25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
-      </c>
-      <c r="K36" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1909,89 +1906,89 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1999,282 +1996,314 @@
         <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
         <v>61</v>
       </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" t="s">
-        <v>64</v>
-      </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" t="s">
         <v>61</v>
       </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" t="s">
-        <v>64</v>
-      </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" t="s">
         <v>61</v>
       </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" t="s">
-        <v>64</v>
-      </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" t="s">
         <v>61</v>
       </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" t="s">
-        <v>64</v>
-      </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-      <c r="J47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="J48" t="s">
+        <v>61</v>
       </c>
       <c r="K48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
-      <c r="H49" t="s">
-        <v>70</v>
-      </c>
-      <c r="K49" t="s">
-        <v>59</v>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K49" xr:uid="{DAE2AB6E-F253-4C9C-B579-AA32B67CAED5}"/>
+  <autoFilter ref="B1:K50" xr:uid="{DAE2AB6E-F253-4C9C-B579-AA32B67CAED5}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
